--- a/Calculs/PH3/DataBase_PH3_FileB_MidStrip_V6.xlsx
+++ b/Calculs/PH3/DataBase_PH3_FileB_MidStrip_V6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E43640A-952F-4F5A-A706-497A12A92F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDA80FC-A2B1-4E42-A4BC-FC30F30A3A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-70" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -1086,7 +1086,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I53" sqref="I53"/>
+      <selection pane="topRight" activeCell="X2" sqref="X2:X41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1256,7 +1256,9 @@
       <c r="W2" s="6">
         <v>0</v>
       </c>
-      <c r="X2" s="4"/>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
       <c r="Y2" s="9">
         <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C2)),V2+X2*V2,IF(A1&lt;A2,V2-X3*V3/2,IF(A2&lt;A3,V2-(X1*V1)/2,V2-(X3*V3+X1*V1)/2))),0)</f>
         <v>0</v>
@@ -1345,13 +1347,13 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>2.8800000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V3" s="2">
         <v>56.256</v>
@@ -1359,34 +1361,34 @@
       <c r="W3" s="2">
         <v>17.088000000000001</v>
       </c>
-      <c r="X3" s="7"/>
+      <c r="X3" s="7">
+        <v>0</v>
+      </c>
       <c r="Y3" s="9">
-        <f t="shared" ref="Y3" si="6">IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),V3+X3*V3,IF(A2&lt;A3,V3-X4*V4/2,IF(A3&lt;A4,V3-(X2*V2)/2,V3-(X4*V4+X2*V2)/2))),0)</f>
-        <v>56.256</v>
+        <v>42</v>
       </c>
       <c r="Z3" s="9">
-        <f t="shared" ref="Z3" si="7">IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),W3+X3*W3,IF(A2&lt;A3,W3-X4*W4/2,IF(A3&lt;A4,W3-(X2*W2)/2,W3-(X4*W4+X2*W2)/2))),0)</f>
-        <v>17.088000000000001</v>
+        <v>21</v>
       </c>
       <c r="AA3" s="3">
         <v>0</v>
       </c>
       <c r="AB3" s="9">
-        <f t="shared" ref="AB3" si="8">Y3*(1-AA3)</f>
-        <v>56.256</v>
+        <f t="shared" ref="AB3" si="6">Y3*(1-AA3)</f>
+        <v>42</v>
       </c>
       <c r="AC3" s="9">
-        <f t="shared" ref="AC3" si="9">Y3*AA3 + Z3</f>
-        <v>17.088000000000001</v>
+        <f t="shared" ref="AC3" si="7">Y3*AA3 + Z3</f>
+        <v>21</v>
       </c>
       <c r="AD3" s="8">
-        <f t="shared" ref="AD3" si="10">1.35*Y3+1.5*Z3</f>
-        <v>101.5776</v>
+        <f t="shared" ref="AD3" si="8">1.35*Y3+1.5*Z3</f>
+        <v>88.2</v>
       </c>
       <c r="AE3" s="8"/>
       <c r="AF3" s="9">
-        <f t="shared" ref="AF3" si="11">AB3+AC3</f>
-        <v>73.343999999999994</v>
+        <f t="shared" ref="AF3" si="9">AB3+AC3</f>
+        <v>63</v>
       </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
@@ -1454,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="2">
         <v>0.64460000000000006</v>
@@ -1462,34 +1464,34 @@
       <c r="W4" s="2">
         <v>0.1958</v>
       </c>
-      <c r="X4" s="7"/>
+      <c r="X4" s="7">
+        <v>0</v>
+      </c>
       <c r="Y4" s="9">
-        <f t="shared" ref="Y4:Y41" si="12">IFERROR(IF(ISNUMBER(SEARCH("Appui",C4)),V4+X4*V4,IF(A3&lt;A4,V4-X5*V5/2,IF(A4&lt;A5,V4-(X3*V3)/2,V4-(X5*V5+X3*V3)/2))),0)</f>
-        <v>0.64460000000000006</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="9">
-        <f t="shared" ref="Z4:Z41" si="13">IFERROR(IF(ISNUMBER(SEARCH("Appui",C4)),W4+X4*W4,IF(A3&lt;A4,W4-X5*W5/2,IF(A4&lt;A5,W4-(X3*W3)/2,W4-(X5*W5+X3*W3)/2))),0)</f>
-        <v>0.1958</v>
+        <v>6</v>
       </c>
       <c r="AA4" s="3">
         <v>0</v>
       </c>
       <c r="AB4" s="9">
-        <f t="shared" ref="AB4:AB41" si="14">Y4*(1-AA4)</f>
-        <v>0.64460000000000006</v>
+        <f t="shared" ref="AB4:AB41" si="10">Y4*(1-AA4)</f>
+        <v>0</v>
       </c>
       <c r="AC4" s="9">
-        <f t="shared" ref="AC4:AC41" si="15">Y4*AA4 + Z4</f>
-        <v>0.1958</v>
+        <f t="shared" ref="AC4:AC41" si="11">Y4*AA4 + Z4</f>
+        <v>6</v>
       </c>
       <c r="AD4" s="8">
-        <f t="shared" ref="AD4:AD41" si="16">1.35*Y4+1.5*Z4</f>
-        <v>1.1639100000000002</v>
+        <f t="shared" ref="AD4:AD41" si="12">1.35*Y4+1.5*Z4</f>
+        <v>9</v>
       </c>
       <c r="AE4" s="8"/>
       <c r="AF4" s="9">
-        <f t="shared" ref="AF4:AF41" si="17">AB4+AC4</f>
-        <v>0.84040000000000004</v>
+        <f t="shared" ref="AF4:AF41" si="13">AB4+AC4</f>
+        <v>6</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
@@ -1557,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="2">
         <v>29.253119999999999</v>
@@ -1565,34 +1567,34 @@
       <c r="W5" s="2">
         <v>8.8857599999999994</v>
       </c>
-      <c r="X5" s="7"/>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
       <c r="Y5" s="9">
+        <v>22</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>23</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="9">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="AC5" s="9">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="AD5" s="8">
         <f t="shared" si="12"/>
-        <v>29.253119999999999</v>
-      </c>
-      <c r="Z5" s="9">
-        <f t="shared" si="13"/>
-        <v>8.8857599999999994</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="9">
-        <f t="shared" si="14"/>
-        <v>29.253119999999999</v>
-      </c>
-      <c r="AC5" s="9">
-        <f t="shared" si="15"/>
-        <v>8.8857599999999994</v>
-      </c>
-      <c r="AD5" s="8">
-        <f t="shared" si="16"/>
-        <v>52.820352</v>
+        <v>64.2</v>
       </c>
       <c r="AE5" s="8"/>
       <c r="AF5" s="9">
-        <f t="shared" si="17"/>
-        <v>38.13888</v>
+        <f t="shared" si="13"/>
+        <v>45</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
@@ -1660,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="2">
         <v>30.296199999999999</v>
@@ -1668,34 +1670,34 @@
       <c r="W6" s="2">
         <v>9.2026000000000003</v>
       </c>
-      <c r="X6" s="7"/>
+      <c r="X6" s="7">
+        <v>0</v>
+      </c>
       <c r="Y6" s="9">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>13</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="AC6" s="9">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="AD6" s="8">
         <f t="shared" si="12"/>
-        <v>30.296199999999999</v>
-      </c>
-      <c r="Z6" s="9">
-        <f t="shared" si="13"/>
-        <v>9.2026000000000003</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="9">
-        <f t="shared" si="14"/>
-        <v>30.296199999999999</v>
-      </c>
-      <c r="AC6" s="9">
-        <f t="shared" si="15"/>
-        <v>9.2026000000000003</v>
-      </c>
-      <c r="AD6" s="8">
-        <f t="shared" si="16"/>
-        <v>54.703769999999999</v>
+        <v>55.95</v>
       </c>
       <c r="AE6" s="8"/>
       <c r="AF6" s="9">
-        <f t="shared" si="17"/>
-        <v>39.498800000000003</v>
+        <f t="shared" si="13"/>
+        <v>40</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
@@ -1763,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="2">
         <v>78.758399999999995</v>
@@ -1771,34 +1773,34 @@
       <c r="W7">
         <v>23.923200000000001</v>
       </c>
-      <c r="X7" s="7"/>
+      <c r="X7" s="7">
+        <v>0</v>
+      </c>
       <c r="Y7" s="9">
+        <v>60</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>33</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="AC7" s="9">
+        <f t="shared" si="11"/>
+        <v>33</v>
+      </c>
+      <c r="AD7" s="8">
         <f t="shared" si="12"/>
-        <v>78.758399999999995</v>
-      </c>
-      <c r="Z7" s="9">
-        <f t="shared" si="13"/>
-        <v>23.923200000000001</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="9">
-        <f t="shared" si="14"/>
-        <v>78.758399999999995</v>
-      </c>
-      <c r="AC7" s="9">
-        <f t="shared" si="15"/>
-        <v>23.923200000000001</v>
-      </c>
-      <c r="AD7" s="8">
-        <f t="shared" si="16"/>
-        <v>142.20864</v>
+        <v>130.5</v>
       </c>
       <c r="AE7" s="8"/>
       <c r="AF7" s="9">
-        <f t="shared" si="17"/>
-        <v>102.6816</v>
+        <f t="shared" si="13"/>
+        <v>93</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
@@ -1866,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="2">
         <v>50.923400000000001</v>
@@ -1874,34 +1876,34 @@
       <c r="W8" s="2">
         <v>15.4682</v>
       </c>
-      <c r="X8" s="7"/>
+      <c r="X8" s="7">
+        <v>0</v>
+      </c>
       <c r="Y8" s="9">
+        <v>45</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>14</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="9">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="AC8" s="9">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="AD8" s="8">
         <f t="shared" si="12"/>
-        <v>50.923400000000001</v>
-      </c>
-      <c r="Z8" s="9">
-        <f t="shared" si="13"/>
-        <v>15.4682</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="9">
-        <f t="shared" si="14"/>
-        <v>50.923400000000001</v>
-      </c>
-      <c r="AC8" s="9">
-        <f t="shared" si="15"/>
-        <v>15.4682</v>
-      </c>
-      <c r="AD8" s="8">
-        <f t="shared" si="16"/>
-        <v>91.948890000000006</v>
+        <v>81.75</v>
       </c>
       <c r="AE8" s="8"/>
       <c r="AF8" s="9">
-        <f t="shared" si="17"/>
-        <v>66.391599999999997</v>
+        <f t="shared" si="13"/>
+        <v>59</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
@@ -1969,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="2">
         <v>76.508160000000004</v>
@@ -1977,34 +1979,34 @@
       <c r="W9">
         <v>23.23968</v>
       </c>
-      <c r="X9" s="7"/>
+      <c r="X9" s="7">
+        <v>0</v>
+      </c>
       <c r="Y9" s="9">
+        <v>59</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>32</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="9">
+        <f t="shared" si="10"/>
+        <v>59</v>
+      </c>
+      <c r="AC9" s="9">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="AD9" s="8">
         <f t="shared" si="12"/>
-        <v>76.508160000000004</v>
-      </c>
-      <c r="Z9" s="9">
-        <f t="shared" si="13"/>
-        <v>23.23968</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="9">
-        <f t="shared" si="14"/>
-        <v>76.508160000000004</v>
-      </c>
-      <c r="AC9" s="9">
-        <f t="shared" si="15"/>
-        <v>23.23968</v>
-      </c>
-      <c r="AD9" s="8">
-        <f t="shared" si="16"/>
-        <v>138.14553600000002</v>
+        <v>127.65</v>
       </c>
       <c r="AE9" s="8"/>
       <c r="AF9" s="9">
-        <f t="shared" si="17"/>
-        <v>99.747839999999997</v>
+        <f t="shared" si="13"/>
+        <v>91</v>
       </c>
       <c r="AP9" s="2"/>
     </row>
@@ -2071,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="2">
         <v>33.519199999999998</v>
@@ -2079,34 +2081,34 @@
       <c r="W10" s="2">
         <v>10.1816</v>
       </c>
-      <c r="X10" s="7"/>
+      <c r="X10" s="7">
+        <v>0</v>
+      </c>
       <c r="Y10" s="9">
+        <v>32</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>11</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="9">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AC10" s="9">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="AD10" s="8">
         <f t="shared" si="12"/>
-        <v>33.519199999999998</v>
-      </c>
-      <c r="Z10" s="9">
-        <f t="shared" si="13"/>
-        <v>10.1816</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="9">
-        <f t="shared" si="14"/>
-        <v>33.519199999999998</v>
-      </c>
-      <c r="AC10" s="9">
-        <f t="shared" si="15"/>
-        <v>10.1816</v>
-      </c>
-      <c r="AD10" s="8">
-        <f t="shared" si="16"/>
-        <v>60.523319999999998</v>
+        <v>59.7</v>
       </c>
       <c r="AE10" s="8"/>
       <c r="AF10" s="9">
-        <f t="shared" si="17"/>
-        <v>43.700800000000001</v>
+        <f t="shared" si="13"/>
+        <v>43</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
@@ -2174,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="2">
         <v>82.508800000000008</v>
@@ -2182,34 +2184,34 @@
       <c r="W11" s="2">
         <v>25.0624</v>
       </c>
-      <c r="X11" s="7"/>
+      <c r="X11" s="7">
+        <v>0</v>
+      </c>
       <c r="Y11" s="9">
+        <v>64</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>33</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="9">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="AC11" s="9">
+        <f t="shared" si="11"/>
+        <v>33</v>
+      </c>
+      <c r="AD11" s="8">
         <f t="shared" si="12"/>
-        <v>82.508800000000008</v>
-      </c>
-      <c r="Z11" s="9">
-        <f t="shared" si="13"/>
-        <v>25.0624</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="9">
-        <f t="shared" si="14"/>
-        <v>82.508800000000008</v>
-      </c>
-      <c r="AC11" s="9">
-        <f t="shared" si="15"/>
-        <v>25.0624</v>
-      </c>
-      <c r="AD11" s="8">
-        <f t="shared" si="16"/>
-        <v>148.98048000000003</v>
+        <v>135.9</v>
       </c>
       <c r="AE11" s="8"/>
       <c r="AF11" s="9">
-        <f t="shared" si="17"/>
-        <v>107.5712</v>
+        <f t="shared" si="13"/>
+        <v>97</v>
       </c>
       <c r="AP11" s="2"/>
     </row>
@@ -2281,33 +2283,29 @@
       <c r="W12" s="6">
         <v>0</v>
       </c>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="9">
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="8">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE12" s="8"/>
       <c r="AF12" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP12" s="2"/>
@@ -2369,13 +2367,13 @@
         <v>1</v>
       </c>
       <c r="S13">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V13" s="2">
         <v>42.754560000000005</v>
@@ -2383,34 +2381,34 @@
       <c r="W13" s="2">
         <v>12.986880000000001</v>
       </c>
-      <c r="X13" s="7"/>
+      <c r="X13" s="7">
+        <v>0</v>
+      </c>
       <c r="Y13" s="9">
+        <v>33</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="9">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="AC13" s="9">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="AD13" s="8">
         <f t="shared" si="12"/>
-        <v>42.754560000000005</v>
-      </c>
-      <c r="Z13" s="9">
-        <f t="shared" si="13"/>
-        <v>12.986880000000001</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="9">
-        <f t="shared" si="14"/>
-        <v>42.754560000000005</v>
-      </c>
-      <c r="AC13" s="9">
-        <f t="shared" si="15"/>
-        <v>12.986880000000001</v>
-      </c>
-      <c r="AD13" s="8">
-        <f t="shared" si="16"/>
-        <v>77.198976000000016</v>
+        <v>64.050000000000011</v>
       </c>
       <c r="AE13" s="8"/>
       <c r="AF13" s="9">
-        <f t="shared" si="17"/>
-        <v>55.741440000000004</v>
+        <f t="shared" si="13"/>
+        <v>46</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
@@ -2478,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="2">
         <v>30.296199999999999</v>
@@ -2486,34 +2484,34 @@
       <c r="W14" s="2">
         <v>9.2026000000000003</v>
       </c>
-      <c r="X14" s="7"/>
+      <c r="X14" s="7">
+        <v>0</v>
+      </c>
       <c r="Y14" s="9">
+        <v>22</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="9">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="AC14" s="9">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="AD14" s="8">
         <f t="shared" si="12"/>
-        <v>30.296199999999999</v>
-      </c>
-      <c r="Z14" s="9">
-        <f t="shared" si="13"/>
-        <v>9.2026000000000003</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="9">
-        <f t="shared" si="14"/>
-        <v>30.296199999999999</v>
-      </c>
-      <c r="AC14" s="9">
-        <f t="shared" si="15"/>
-        <v>9.2026000000000003</v>
-      </c>
-      <c r="AD14" s="8">
-        <f t="shared" si="16"/>
-        <v>54.703769999999999</v>
+        <v>47.7</v>
       </c>
       <c r="AE14" s="8"/>
       <c r="AF14" s="9">
-        <f t="shared" si="17"/>
-        <v>39.498800000000003</v>
+        <f t="shared" si="13"/>
+        <v>34</v>
       </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
@@ -2581,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="2">
         <v>0.75007999999999997</v>
@@ -2589,34 +2587,34 @@
       <c r="W15" s="2">
         <v>0.22783999999999999</v>
       </c>
-      <c r="X15" s="7"/>
+      <c r="X15" s="7">
+        <v>0</v>
+      </c>
       <c r="Y15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="9">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AD15" s="8">
         <f t="shared" si="12"/>
-        <v>0.75007999999999997</v>
-      </c>
-      <c r="Z15" s="9">
-        <f t="shared" si="13"/>
-        <v>0.22783999999999999</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="9">
-        <f t="shared" si="14"/>
-        <v>0.75007999999999997</v>
-      </c>
-      <c r="AC15" s="9">
-        <f t="shared" si="15"/>
-        <v>0.22783999999999999</v>
-      </c>
-      <c r="AD15" s="8">
-        <f t="shared" si="16"/>
-        <v>1.354368</v>
+        <v>15</v>
       </c>
       <c r="AE15" s="8"/>
       <c r="AF15" s="9">
-        <f t="shared" si="17"/>
-        <v>0.9779199999999999</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
@@ -2684,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="2">
         <v>36.742199999999997</v>
@@ -2692,34 +2690,34 @@
       <c r="W16">
         <v>11.160600000000001</v>
       </c>
-      <c r="X16" s="7"/>
+      <c r="X16" s="7">
+        <v>0</v>
+      </c>
       <c r="Y16" s="9">
+        <v>32</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>16</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="9">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AC16" s="9">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AD16" s="8">
         <f t="shared" si="12"/>
-        <v>36.742199999999997</v>
-      </c>
-      <c r="Z16" s="9">
-        <f t="shared" si="13"/>
-        <v>11.160600000000001</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="9">
-        <f t="shared" si="14"/>
-        <v>36.742199999999997</v>
-      </c>
-      <c r="AC16" s="9">
-        <f t="shared" si="15"/>
-        <v>11.160600000000001</v>
-      </c>
-      <c r="AD16" s="8">
-        <f t="shared" si="16"/>
-        <v>66.342870000000005</v>
+        <v>67.2</v>
       </c>
       <c r="AE16" s="8"/>
       <c r="AF16" s="9">
-        <f t="shared" si="17"/>
-        <v>47.902799999999999</v>
+        <f t="shared" si="13"/>
+        <v>48</v>
       </c>
       <c r="AP16" s="2"/>
     </row>
@@ -2786,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="2">
         <v>41.254400000000004</v>
@@ -2794,34 +2792,34 @@
       <c r="W17">
         <v>12.5312</v>
       </c>
-      <c r="X17" s="7"/>
+      <c r="X17" s="7">
+        <v>0</v>
+      </c>
       <c r="Y17" s="9">
+        <v>32</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>16</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="9">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AC17" s="9">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AD17" s="8">
         <f t="shared" si="12"/>
-        <v>41.254400000000004</v>
-      </c>
-      <c r="Z17" s="9">
-        <f t="shared" si="13"/>
-        <v>12.5312</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="9">
-        <f t="shared" si="14"/>
-        <v>41.254400000000004</v>
-      </c>
-      <c r="AC17" s="9">
-        <f t="shared" si="15"/>
-        <v>12.5312</v>
-      </c>
-      <c r="AD17" s="8">
-        <f t="shared" si="16"/>
-        <v>74.490240000000014</v>
+        <v>67.2</v>
       </c>
       <c r="AE17" s="8"/>
       <c r="AF17" s="9">
-        <f t="shared" si="17"/>
-        <v>53.785600000000002</v>
+        <f t="shared" si="13"/>
+        <v>48</v>
       </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
@@ -2883,13 +2881,13 @@
         <v>1</v>
       </c>
       <c r="S18">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T18">
         <v>0</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V18" s="2">
         <v>52.212600000000002</v>
@@ -2897,34 +2895,34 @@
       <c r="W18">
         <v>15.8598</v>
       </c>
-      <c r="X18" s="7"/>
+      <c r="X18" s="7">
+        <v>0</v>
+      </c>
       <c r="Y18" s="9">
+        <v>47</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>18</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="9">
+        <f t="shared" si="10"/>
+        <v>47</v>
+      </c>
+      <c r="AC18" s="9">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="AD18" s="8">
         <f t="shared" si="12"/>
-        <v>52.212600000000002</v>
-      </c>
-      <c r="Z18" s="9">
-        <f t="shared" si="13"/>
-        <v>15.8598</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="9">
-        <f t="shared" si="14"/>
-        <v>52.212600000000002</v>
-      </c>
-      <c r="AC18" s="9">
-        <f t="shared" si="15"/>
-        <v>15.8598</v>
-      </c>
-      <c r="AD18" s="8">
-        <f t="shared" si="16"/>
-        <v>94.276710000000008</v>
+        <v>90.45</v>
       </c>
       <c r="AE18" s="8"/>
       <c r="AF18" s="9">
-        <f t="shared" si="17"/>
-        <v>68.072400000000002</v>
+        <f t="shared" si="13"/>
+        <v>65</v>
       </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
@@ -2986,13 +2984,13 @@
         <v>1</v>
       </c>
       <c r="S19">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V19" s="2">
         <v>32.253439999999998</v>
@@ -3000,34 +2998,34 @@
       <c r="W19">
         <v>9.7971199999999996</v>
       </c>
-      <c r="X19" s="7"/>
+      <c r="X19" s="7">
+        <v>0</v>
+      </c>
       <c r="Y19" s="9">
+        <v>25</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="9">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="AC19" s="9">
+        <f t="shared" si="11"/>
+        <v>13.6</v>
+      </c>
+      <c r="AD19" s="8">
         <f t="shared" si="12"/>
-        <v>32.253439999999998</v>
-      </c>
-      <c r="Z19" s="9">
-        <f t="shared" si="13"/>
-        <v>9.7971199999999996</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="9">
-        <f t="shared" si="14"/>
-        <v>32.253439999999998</v>
-      </c>
-      <c r="AC19" s="9">
-        <f t="shared" si="15"/>
-        <v>9.7971199999999996</v>
-      </c>
-      <c r="AD19" s="8">
-        <f t="shared" si="16"/>
-        <v>58.237824000000003</v>
+        <v>54.15</v>
       </c>
       <c r="AE19" s="8"/>
       <c r="AF19" s="9">
-        <f t="shared" si="17"/>
-        <v>42.050559999999997</v>
+        <f t="shared" si="13"/>
+        <v>38.6</v>
       </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
@@ -3095,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="2">
         <v>38.675999999999995</v>
@@ -3103,34 +3101,34 @@
       <c r="W20">
         <v>11.747999999999999</v>
       </c>
-      <c r="X20" s="7"/>
+      <c r="X20" s="7">
+        <v>0</v>
+      </c>
       <c r="Y20" s="9">
+        <v>34</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>14</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="9">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="AC20" s="9">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="AD20" s="8">
         <f t="shared" si="12"/>
-        <v>38.675999999999995</v>
-      </c>
-      <c r="Z20" s="9">
-        <f t="shared" si="13"/>
-        <v>11.747999999999999</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="9">
-        <f t="shared" si="14"/>
-        <v>38.675999999999995</v>
-      </c>
-      <c r="AC20" s="9">
-        <f t="shared" si="15"/>
-        <v>11.747999999999999</v>
-      </c>
-      <c r="AD20" s="8">
-        <f t="shared" si="16"/>
-        <v>69.834599999999995</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="AE20" s="8"/>
       <c r="AF20" s="9">
-        <f t="shared" si="17"/>
-        <v>50.423999999999992</v>
+        <f t="shared" si="13"/>
+        <v>48</v>
       </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2"/>
@@ -3198,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="2">
         <v>21.752319999999997</v>
@@ -3206,34 +3204,34 @@
       <c r="W21">
         <v>6.607359999999999</v>
       </c>
-      <c r="X21" s="7"/>
+      <c r="X21" s="7">
+        <v>0</v>
+      </c>
       <c r="Y21" s="9">
+        <v>17</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>9</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="9">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="AC21" s="9">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AD21" s="8">
         <f t="shared" si="12"/>
-        <v>21.752319999999997</v>
-      </c>
-      <c r="Z21" s="9">
-        <f t="shared" si="13"/>
-        <v>6.607359999999999</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="9">
-        <f t="shared" si="14"/>
-        <v>21.752319999999997</v>
-      </c>
-      <c r="AC21" s="9">
-        <f t="shared" si="15"/>
-        <v>6.607359999999999</v>
-      </c>
-      <c r="AD21" s="8">
-        <f t="shared" si="16"/>
-        <v>39.276671999999998</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="AE21" s="8"/>
       <c r="AF21" s="9">
-        <f t="shared" si="17"/>
-        <v>28.359679999999997</v>
+        <f t="shared" si="13"/>
+        <v>26</v>
       </c>
       <c r="AP21" s="2"/>
     </row>
@@ -3305,33 +3303,29 @@
       <c r="W22" s="6">
         <v>0</v>
       </c>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="9">
+      <c r="X22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="8">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE22" s="8"/>
       <c r="AF22" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP22" s="2"/>
@@ -3399,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23">
         <v>34.503680000000003</v>
@@ -3407,34 +3401,34 @@
       <c r="W23">
         <v>10.480639999999999</v>
       </c>
-      <c r="X23" s="7"/>
+      <c r="X23" s="7">
+        <v>0</v>
+      </c>
       <c r="Y23" s="9">
+        <v>27</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>11.5</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="9">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="AC23" s="9">
+        <f t="shared" si="11"/>
+        <v>11.5</v>
+      </c>
+      <c r="AD23" s="8">
         <f t="shared" si="12"/>
-        <v>34.503680000000003</v>
-      </c>
-      <c r="Z23" s="9">
-        <f t="shared" si="13"/>
-        <v>10.480639999999999</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="9">
-        <f t="shared" si="14"/>
-        <v>34.503680000000003</v>
-      </c>
-      <c r="AC23" s="9">
-        <f t="shared" si="15"/>
-        <v>10.480639999999999</v>
-      </c>
-      <c r="AD23" s="8">
-        <f t="shared" si="16"/>
-        <v>62.300928000000006</v>
+        <v>53.7</v>
       </c>
       <c r="AE23" s="8"/>
       <c r="AF23" s="9">
-        <f t="shared" si="17"/>
-        <v>44.984320000000004</v>
+        <f t="shared" si="13"/>
+        <v>38.5</v>
       </c>
       <c r="AP23" s="2"/>
     </row>
@@ -3501,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
         <v>22.561</v>
@@ -3509,34 +3503,34 @@
       <c r="W24">
         <v>6.8529999999999998</v>
       </c>
-      <c r="X24" s="7"/>
+      <c r="X24" s="7">
+        <v>0</v>
+      </c>
       <c r="Y24" s="9">
+        <v>20</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>10</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="9">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="AC24" s="9">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AD24" s="8">
         <f t="shared" si="12"/>
-        <v>22.561</v>
-      </c>
-      <c r="Z24" s="9">
-        <f t="shared" si="13"/>
-        <v>6.8529999999999998</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="9">
-        <f t="shared" si="14"/>
-        <v>22.561</v>
-      </c>
-      <c r="AC24" s="9">
-        <f t="shared" si="15"/>
-        <v>6.8529999999999998</v>
-      </c>
-      <c r="AD24" s="8">
-        <f t="shared" si="16"/>
-        <v>40.736850000000004</v>
+        <v>42</v>
       </c>
       <c r="AE24" s="8"/>
       <c r="AF24" s="9">
-        <f t="shared" si="17"/>
-        <v>29.414000000000001</v>
+        <f t="shared" si="13"/>
+        <v>30</v>
       </c>
       <c r="AP24" s="2"/>
     </row>
@@ -3603,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>0.75007999999999997</v>
@@ -3611,34 +3605,34 @@
       <c r="W25">
         <v>0.22783999999999999</v>
       </c>
-      <c r="X25" s="7"/>
+      <c r="X25" s="7">
+        <v>0</v>
+      </c>
       <c r="Y25" s="9">
+        <v>3</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>10</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="9">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AC25" s="9">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AD25" s="8">
         <f t="shared" si="12"/>
-        <v>0.75007999999999997</v>
-      </c>
-      <c r="Z25" s="9">
-        <f t="shared" si="13"/>
-        <v>0.22783999999999999</v>
-      </c>
-      <c r="AA25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="9">
-        <f t="shared" si="14"/>
-        <v>0.75007999999999997</v>
-      </c>
-      <c r="AC25" s="9">
-        <f t="shared" si="15"/>
-        <v>0.22783999999999999</v>
-      </c>
-      <c r="AD25" s="8">
-        <f t="shared" si="16"/>
-        <v>1.354368</v>
+        <v>19.05</v>
       </c>
       <c r="AE25" s="8"/>
       <c r="AF25" s="9">
-        <f t="shared" si="17"/>
-        <v>0.9779199999999999</v>
+        <f t="shared" si="13"/>
+        <v>13</v>
       </c>
       <c r="AP25" s="2"/>
     </row>
@@ -3705,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
         <v>32.874600000000001</v>
@@ -3713,34 +3707,34 @@
       <c r="W26">
         <v>9.9857999999999993</v>
       </c>
-      <c r="X26" s="7"/>
+      <c r="X26" s="7">
+        <v>0</v>
+      </c>
       <c r="Y26" s="9">
+        <v>30</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>14</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="9">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="AC26" s="9">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="AD26" s="8">
         <f t="shared" si="12"/>
-        <v>32.874600000000001</v>
-      </c>
-      <c r="Z26" s="9">
-        <f t="shared" si="13"/>
-        <v>9.9857999999999993</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="9">
-        <f t="shared" si="14"/>
-        <v>32.874600000000001</v>
-      </c>
-      <c r="AC26" s="9">
-        <f t="shared" si="15"/>
-        <v>9.9857999999999993</v>
-      </c>
-      <c r="AD26" s="8">
-        <f t="shared" si="16"/>
-        <v>59.359410000000011</v>
+        <v>61.5</v>
       </c>
       <c r="AE26" s="8"/>
       <c r="AF26" s="9">
-        <f t="shared" si="17"/>
-        <v>42.860399999999998</v>
+        <f t="shared" si="13"/>
+        <v>44</v>
       </c>
       <c r="AP26" s="2"/>
     </row>
@@ -3801,13 +3795,13 @@
         <v>1</v>
       </c>
       <c r="S27">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V27">
         <v>42.004480000000001</v>
@@ -3815,34 +3809,34 @@
       <c r="W27">
         <v>12.759040000000001</v>
       </c>
-      <c r="X27" s="7"/>
+      <c r="X27" s="7">
+        <v>0</v>
+      </c>
       <c r="Y27" s="9">
+        <v>32</v>
+      </c>
+      <c r="Z27" s="9">
+        <v>16</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="9">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AC27" s="9">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AD27" s="8">
         <f t="shared" si="12"/>
-        <v>42.004480000000001</v>
-      </c>
-      <c r="Z27" s="9">
-        <f t="shared" si="13"/>
-        <v>12.759040000000001</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="9">
-        <f t="shared" si="14"/>
-        <v>42.004480000000001</v>
-      </c>
-      <c r="AC27" s="9">
-        <f t="shared" si="15"/>
-        <v>12.759040000000001</v>
-      </c>
-      <c r="AD27" s="8">
-        <f t="shared" si="16"/>
-        <v>75.844608000000008</v>
+        <v>67.2</v>
       </c>
       <c r="AE27" s="8"/>
       <c r="AF27" s="9">
-        <f t="shared" si="17"/>
-        <v>54.76352</v>
+        <f t="shared" si="13"/>
+        <v>48</v>
       </c>
       <c r="AP27" s="2"/>
     </row>
@@ -3909,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28">
         <v>50.923400000000001</v>
@@ -3917,34 +3911,34 @@
       <c r="W28">
         <v>15.4682</v>
       </c>
-      <c r="X28" s="7"/>
+      <c r="X28" s="7">
+        <v>0</v>
+      </c>
       <c r="Y28" s="9">
+        <v>46</v>
+      </c>
+      <c r="Z28" s="9">
+        <v>18</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="9">
+        <f t="shared" si="10"/>
+        <v>46</v>
+      </c>
+      <c r="AC28" s="9">
+        <f t="shared" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="AD28" s="8">
         <f t="shared" si="12"/>
-        <v>50.923400000000001</v>
-      </c>
-      <c r="Z28" s="9">
-        <f t="shared" si="13"/>
-        <v>15.4682</v>
-      </c>
-      <c r="AA28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="9">
-        <f t="shared" si="14"/>
-        <v>50.923400000000001</v>
-      </c>
-      <c r="AC28" s="9">
-        <f t="shared" si="15"/>
-        <v>15.4682</v>
-      </c>
-      <c r="AD28" s="8">
-        <f t="shared" si="16"/>
-        <v>91.948890000000006</v>
+        <v>89.1</v>
       </c>
       <c r="AE28" s="8"/>
       <c r="AF28" s="9">
-        <f t="shared" si="17"/>
-        <v>66.391599999999997</v>
+        <f t="shared" si="13"/>
+        <v>64</v>
       </c>
       <c r="AP28" s="2"/>
     </row>
@@ -4005,13 +3999,13 @@
         <v>1</v>
       </c>
       <c r="S29">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V29">
         <v>36.003839999999997</v>
@@ -4019,34 +4013,34 @@
       <c r="W29">
         <v>10.936319999999998</v>
       </c>
-      <c r="X29" s="7"/>
+      <c r="X29" s="7">
+        <v>0</v>
+      </c>
       <c r="Y29" s="9">
+        <v>28</v>
+      </c>
+      <c r="Z29" s="9">
+        <v>15</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="9">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="AC29" s="9">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="AD29" s="8">
         <f t="shared" si="12"/>
-        <v>36.003839999999997</v>
-      </c>
-      <c r="Z29" s="9">
-        <f t="shared" si="13"/>
-        <v>10.936319999999998</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="9">
-        <f t="shared" si="14"/>
-        <v>36.003839999999997</v>
-      </c>
-      <c r="AC29" s="9">
-        <f t="shared" si="15"/>
-        <v>10.936319999999998</v>
-      </c>
-      <c r="AD29" s="8">
-        <f t="shared" si="16"/>
-        <v>65.009664000000001</v>
+        <v>60.300000000000004</v>
       </c>
       <c r="AE29" s="8"/>
       <c r="AF29" s="9">
-        <f t="shared" si="17"/>
-        <v>46.940159999999992</v>
+        <f t="shared" si="13"/>
+        <v>43</v>
       </c>
       <c r="AP29" s="2"/>
     </row>
@@ -4113,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30">
         <v>38.031399999999998</v>
@@ -4121,34 +4115,34 @@
       <c r="W30">
         <v>11.552200000000001</v>
       </c>
-      <c r="X30" s="7"/>
+      <c r="X30" s="7">
+        <v>0</v>
+      </c>
       <c r="Y30" s="9">
+        <v>34</v>
+      </c>
+      <c r="Z30" s="9">
+        <v>14</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="9">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="AC30" s="9">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="AD30" s="8">
         <f t="shared" si="12"/>
-        <v>38.031399999999998</v>
-      </c>
-      <c r="Z30" s="9">
-        <f t="shared" si="13"/>
-        <v>11.552200000000001</v>
-      </c>
-      <c r="AA30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="9">
-        <f t="shared" si="14"/>
-        <v>38.031399999999998</v>
-      </c>
-      <c r="AC30" s="9">
-        <f t="shared" si="15"/>
-        <v>11.552200000000001</v>
-      </c>
-      <c r="AD30" s="8">
-        <f t="shared" si="16"/>
-        <v>68.670690000000008</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="AE30" s="8"/>
       <c r="AF30" s="9">
-        <f t="shared" si="17"/>
-        <v>49.583599999999997</v>
+        <f t="shared" si="13"/>
+        <v>48</v>
       </c>
       <c r="AP30" s="2"/>
     </row>
@@ -4215,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <v>21.00224</v>
@@ -4223,34 +4217,34 @@
       <c r="W31">
         <v>6.3795200000000003</v>
       </c>
-      <c r="X31" s="7"/>
+      <c r="X31" s="7">
+        <v>0</v>
+      </c>
       <c r="Y31" s="9">
+        <v>16</v>
+      </c>
+      <c r="Z31" s="9">
+        <v>10</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="9">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="AC31" s="9">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AD31" s="8">
         <f t="shared" si="12"/>
-        <v>21.00224</v>
-      </c>
-      <c r="Z31" s="9">
-        <f t="shared" si="13"/>
-        <v>6.3795200000000003</v>
-      </c>
-      <c r="AA31" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="9">
-        <f t="shared" si="14"/>
-        <v>21.00224</v>
-      </c>
-      <c r="AC31" s="9">
-        <f t="shared" si="15"/>
-        <v>6.3795200000000003</v>
-      </c>
-      <c r="AD31" s="8">
-        <f t="shared" si="16"/>
-        <v>37.922304000000004</v>
+        <v>36.6</v>
       </c>
       <c r="AE31" s="8"/>
       <c r="AF31" s="9">
-        <f t="shared" si="17"/>
-        <v>27.38176</v>
+        <f t="shared" si="13"/>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.35">
@@ -4321,33 +4315,29 @@
       <c r="W32" s="6">
         <v>0</v>
       </c>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="9">
+      <c r="X32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="8">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE32" s="8"/>
       <c r="AF32" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -4414,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33">
         <v>3.7504</v>
@@ -4422,34 +4412,34 @@
       <c r="W33">
         <v>1.1392</v>
       </c>
-      <c r="X33" s="7"/>
+      <c r="X33" s="7">
+        <v>0</v>
+      </c>
       <c r="Y33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="9">
+        <v>10</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="9">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AD33" s="8">
         <f t="shared" si="12"/>
-        <v>3.7504</v>
-      </c>
-      <c r="Z33" s="9">
-        <f t="shared" si="13"/>
-        <v>1.1392</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="9">
-        <f t="shared" si="14"/>
-        <v>3.7504</v>
-      </c>
-      <c r="AC33" s="9">
-        <f t="shared" si="15"/>
-        <v>1.1392</v>
-      </c>
-      <c r="AD33" s="8">
-        <f t="shared" si="16"/>
-        <v>6.7718400000000001</v>
+        <v>15</v>
       </c>
       <c r="AE33" s="8"/>
       <c r="AF33" s="9">
-        <f t="shared" si="17"/>
-        <v>4.8895999999999997</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.35">
@@ -4509,13 +4499,13 @@
         <v>1</v>
       </c>
       <c r="S34">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T34">
         <v>0</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V34">
         <v>0.64460000000000006</v>
@@ -4523,34 +4513,34 @@
       <c r="W34">
         <v>0.1958</v>
       </c>
-      <c r="X34" s="7"/>
+      <c r="X34" s="7">
+        <v>0</v>
+      </c>
       <c r="Y34" s="9">
+        <v>11</v>
+      </c>
+      <c r="Z34" s="9">
+        <v>8</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="9">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="AC34" s="9">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AD34" s="8">
         <f t="shared" si="12"/>
-        <v>0.64460000000000006</v>
-      </c>
-      <c r="Z34" s="9">
-        <f t="shared" si="13"/>
-        <v>0.1958</v>
-      </c>
-      <c r="AA34" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="9">
-        <f t="shared" si="14"/>
-        <v>0.64460000000000006</v>
-      </c>
-      <c r="AC34" s="9">
-        <f t="shared" si="15"/>
-        <v>0.1958</v>
-      </c>
-      <c r="AD34" s="8">
-        <f t="shared" si="16"/>
-        <v>1.1639100000000002</v>
+        <v>26.85</v>
       </c>
       <c r="AE34" s="8"/>
       <c r="AF34" s="9">
-        <f t="shared" si="17"/>
-        <v>0.84040000000000004</v>
+        <f t="shared" si="13"/>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.35">
@@ -4616,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35">
         <v>37.503999999999998</v>
@@ -4624,34 +4614,34 @@
       <c r="W35">
         <v>11.391999999999999</v>
       </c>
-      <c r="X35" s="7"/>
+      <c r="X35" s="7">
+        <v>0</v>
+      </c>
       <c r="Y35" s="9">
+        <v>28</v>
+      </c>
+      <c r="Z35" s="9">
+        <v>22</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="9">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="AC35" s="9">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="AD35" s="8">
         <f t="shared" si="12"/>
-        <v>37.503999999999998</v>
-      </c>
-      <c r="Z35" s="9">
-        <f t="shared" si="13"/>
-        <v>11.391999999999999</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="9">
-        <f t="shared" si="14"/>
-        <v>37.503999999999998</v>
-      </c>
-      <c r="AC35" s="9">
-        <f t="shared" si="15"/>
-        <v>11.391999999999999</v>
-      </c>
-      <c r="AD35" s="8">
-        <f t="shared" si="16"/>
-        <v>67.718400000000003</v>
+        <v>70.800000000000011</v>
       </c>
       <c r="AE35" s="8"/>
       <c r="AF35" s="9">
-        <f t="shared" si="17"/>
-        <v>48.896000000000001</v>
+        <f t="shared" si="13"/>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.35">
@@ -4711,13 +4701,13 @@
         <v>1</v>
       </c>
       <c r="S36">
-        <v>1.92E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T36">
         <v>0</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V36">
         <v>36.0976</v>
@@ -4725,34 +4715,34 @@
       <c r="W36">
         <v>10.9648</v>
       </c>
-      <c r="X36" s="7"/>
+      <c r="X36" s="7">
+        <v>0</v>
+      </c>
       <c r="Y36" s="9">
+        <v>32</v>
+      </c>
+      <c r="Z36" s="9">
+        <v>15</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="9">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="AC36" s="9">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="AD36" s="8">
         <f t="shared" si="12"/>
-        <v>36.0976</v>
-      </c>
-      <c r="Z36" s="9">
-        <f t="shared" si="13"/>
-        <v>10.9648</v>
-      </c>
-      <c r="AA36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="9">
-        <f t="shared" si="14"/>
-        <v>36.0976</v>
-      </c>
-      <c r="AC36" s="9">
-        <f t="shared" si="15"/>
-        <v>10.9648</v>
-      </c>
-      <c r="AD36" s="8">
-        <f t="shared" si="16"/>
-        <v>65.178960000000004</v>
+        <v>65.7</v>
       </c>
       <c r="AE36" s="8"/>
       <c r="AF36" s="9">
-        <f t="shared" si="17"/>
-        <v>47.062399999999997</v>
+        <f t="shared" si="13"/>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.35">
@@ -4826,34 +4816,34 @@
       <c r="W37">
         <v>23.46752</v>
       </c>
-      <c r="X37" s="7"/>
+      <c r="X37" s="7">
+        <v>0</v>
+      </c>
       <c r="Y37" s="9">
+        <v>59</v>
+      </c>
+      <c r="Z37" s="9">
+        <v>32.5</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="9">
+        <f t="shared" si="10"/>
+        <v>59</v>
+      </c>
+      <c r="AC37" s="9">
+        <f t="shared" si="11"/>
+        <v>32.5</v>
+      </c>
+      <c r="AD37" s="8">
         <f t="shared" si="12"/>
-        <v>77.258240000000001</v>
-      </c>
-      <c r="Z37" s="9">
-        <f t="shared" si="13"/>
-        <v>23.46752</v>
-      </c>
-      <c r="AA37" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="9">
-        <f t="shared" si="14"/>
-        <v>77.258240000000001</v>
-      </c>
-      <c r="AC37" s="9">
-        <f t="shared" si="15"/>
-        <v>23.46752</v>
-      </c>
-      <c r="AD37" s="8">
-        <f t="shared" si="16"/>
-        <v>139.49990400000002</v>
+        <v>128.4</v>
       </c>
       <c r="AE37" s="8"/>
       <c r="AF37" s="9">
-        <f t="shared" si="17"/>
-        <v>100.72576000000001</v>
+        <f t="shared" si="13"/>
+        <v>91.5</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.35">
@@ -4927,34 +4917,34 @@
       <c r="W38">
         <v>15.272400000000001</v>
       </c>
-      <c r="X38" s="7"/>
+      <c r="X38" s="7">
+        <v>0</v>
+      </c>
       <c r="Y38" s="9">
+        <v>45</v>
+      </c>
+      <c r="Z38" s="9">
+        <v>17</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="9">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="AC38" s="9">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="AD38" s="8">
         <f t="shared" si="12"/>
-        <v>50.278800000000004</v>
-      </c>
-      <c r="Z38" s="9">
-        <f t="shared" si="13"/>
-        <v>15.272400000000001</v>
-      </c>
-      <c r="AA38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="9">
-        <f t="shared" si="14"/>
-        <v>50.278800000000004</v>
-      </c>
-      <c r="AC38" s="9">
-        <f t="shared" si="15"/>
-        <v>15.272400000000001</v>
-      </c>
-      <c r="AD38" s="8">
-        <f t="shared" si="16"/>
-        <v>90.784980000000019</v>
+        <v>86.25</v>
       </c>
       <c r="AE38" s="8"/>
       <c r="AF38" s="9">
-        <f t="shared" si="17"/>
-        <v>65.551200000000009</v>
+        <f t="shared" si="13"/>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.35">
@@ -5028,34 +5018,34 @@
       <c r="W39">
         <v>21.6448</v>
       </c>
-      <c r="X39" s="7"/>
+      <c r="X39" s="7">
+        <v>0</v>
+      </c>
       <c r="Y39" s="9">
+        <v>55</v>
+      </c>
+      <c r="Z39" s="9">
+        <v>32</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="9">
+        <f t="shared" si="10"/>
+        <v>55</v>
+      </c>
+      <c r="AC39" s="9">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="AD39" s="8">
         <f t="shared" si="12"/>
-        <v>71.257599999999996</v>
-      </c>
-      <c r="Z39" s="9">
-        <f t="shared" si="13"/>
-        <v>21.6448</v>
-      </c>
-      <c r="AA39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="9">
-        <f t="shared" si="14"/>
-        <v>71.257599999999996</v>
-      </c>
-      <c r="AC39" s="9">
-        <f t="shared" si="15"/>
-        <v>21.6448</v>
-      </c>
-      <c r="AD39" s="8">
-        <f t="shared" si="16"/>
-        <v>128.66496000000001</v>
+        <v>122.25</v>
       </c>
       <c r="AE39" s="8"/>
       <c r="AF39" s="9">
-        <f t="shared" si="17"/>
-        <v>92.9024</v>
+        <f t="shared" si="13"/>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.35">
@@ -5129,34 +5119,34 @@
       <c r="W40">
         <v>12.335400000000002</v>
       </c>
-      <c r="X40" s="7"/>
+      <c r="X40" s="7">
+        <v>0</v>
+      </c>
       <c r="Y40" s="9">
+        <v>36</v>
+      </c>
+      <c r="Z40" s="9">
+        <v>14</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="9">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="AC40" s="9">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="AD40" s="8">
         <f t="shared" si="12"/>
-        <v>40.609800000000007</v>
-      </c>
-      <c r="Z40" s="9">
-        <f t="shared" si="13"/>
-        <v>12.335400000000002</v>
-      </c>
-      <c r="AA40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="9">
-        <f t="shared" si="14"/>
-        <v>40.609800000000007</v>
-      </c>
-      <c r="AC40" s="9">
-        <f t="shared" si="15"/>
-        <v>12.335400000000002</v>
-      </c>
-      <c r="AD40" s="8">
-        <f t="shared" si="16"/>
-        <v>73.326330000000013</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="AE40" s="8"/>
       <c r="AF40" s="9">
-        <f t="shared" si="17"/>
-        <v>52.945200000000007</v>
+        <f t="shared" si="13"/>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.35">
@@ -5230,34 +5220,34 @@
       <c r="W41">
         <v>18.682880000000001</v>
       </c>
-      <c r="X41" s="7"/>
+      <c r="X41" s="7">
+        <v>0</v>
+      </c>
       <c r="Y41" s="9">
+        <v>47</v>
+      </c>
+      <c r="Z41" s="9">
+        <v>23</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="9">
+        <f t="shared" si="10"/>
+        <v>47</v>
+      </c>
+      <c r="AC41" s="9">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="AD41" s="8">
         <f t="shared" si="12"/>
-        <v>61.50656</v>
-      </c>
-      <c r="Z41" s="9">
-        <f t="shared" si="13"/>
-        <v>18.682880000000001</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="9">
-        <f t="shared" si="14"/>
-        <v>61.50656</v>
-      </c>
-      <c r="AC41" s="9">
-        <f t="shared" si="15"/>
-        <v>18.682880000000001</v>
-      </c>
-      <c r="AD41" s="8">
-        <f t="shared" si="16"/>
-        <v>111.058176</v>
+        <v>97.95</v>
       </c>
       <c r="AE41" s="8"/>
       <c r="AF41" s="9">
-        <f t="shared" si="17"/>
-        <v>80.189440000000005</v>
+        <f t="shared" si="13"/>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.35">
